--- a/biology/Histoire de la zoologie et de la botanique/David_Balcombe_Wingate/David_Balcombe_Wingate.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/David_Balcombe_Wingate/David_Balcombe_Wingate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Balcombe Wingate, né le 11 octobre 1935 aux Bermudes, est un ornithologue, naturaliste et protecteur de la nature britannique.
 En 1951, avec Robert Cushman Murphy (1887-1973) et Louis S. Mowbrey, il redécouvre une espèce que l’on pensait éteinte depuis 1620, le pétrel des Bermudes. Ceci l’encourage d’étudier la zoologie à l’université Cornell avant de revenir aux Bermudes pour y occuper le rôle de Chief Conservation Officer, fonction qu’il conserve jusqu’à son départ à la retraite en 2000. Afin d'assurer la conservation de ce pétrel, il entreprend de restaurer une île dans son état écologique pré-colonial. Il est fait officier de l’Ordre de l'Empire britannique en 2001 en récompense des services rendus pour la conservation environnementale.
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « David B. Wingate » (voir la liste des auteurs) (version du 3 décembre 2006).</t>
         </is>
